--- a/public/sample/espi_university_excel_sample.xlsx
+++ b/public/sample/espi_university_excel_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc-dev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C8604-F47E-48AF-A4FE-A41BECEFC3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D514B4-0ED9-4802-9383-2C30090D58BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CDF0A69C-3E88-4FA5-A10B-05F8EF6AB4FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{511FF53B-8D8F-4C10-AB9A-278269F4DF3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>University Name</t>
   </si>
@@ -42,22 +42,112 @@
     <t>Email</t>
   </si>
   <si>
-    <t>M.S University</t>
-  </si>
-  <si>
-    <t>Maharaja Sayajirav</t>
-  </si>
-  <si>
-    <t>Sayajiganj Vadodara</t>
-  </si>
-  <si>
-    <t>ms@gmail.com</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>Provision State</t>
+  </si>
+  <si>
+    <t>Intake Year</t>
+  </si>
+  <si>
+    <t>Intake Month</t>
+  </si>
+  <si>
+    <t>Application Fees</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>D-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>D-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>D-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>D-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>G-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>G-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>G-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>G-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>PG-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>PG-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>PG-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>PG-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>10-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>10-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>10-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>10-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>12-Req-ACA-%</t>
+  </si>
+  <si>
+    <t>12-Req-ACA-GPA</t>
+  </si>
+  <si>
+    <t>12-Req-LAN-%</t>
+  </si>
+  <si>
+    <t>12-Req-LAN-GPA</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abc details</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>www.abc.com</t>
+  </si>
+  <si>
+    <t>3.5 GPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90% / 4.5 </t>
   </si>
 </sst>
 </file>
@@ -110,10 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,23 +519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1900697-CE4A-4BF8-BAD8-F27651649D1C}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A8D07-54C0-48ED-BD42-3B45D68FDAB3}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection sqref="A1:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,118 +545,196 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>9999999999</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9999999999</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>9999999999</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>9999999999</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>9999999999</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>2021</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{9920AFA7-CD28-4D08-A874-573A7C7EBCA0}">
+      <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{89C47E21-01A3-4031-9F0F-1E0286CD98E8}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{0178EE3E-93A2-4950-821A-899698BEF421}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{F59921D8-1C61-4B3A-B95C-F652E6DC2EBC}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{A7D75F40-9259-41FC-A506-639E9E2E33C3}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{49426E2D-A204-4EDF-A4CD-6620E5630B18}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3765E2EA-9CD7-4299-B48F-983336E44B1A}"/>
+    <hyperlink ref="K2" r:id="rId2" display="www.abc.com" xr:uid="{478C94E7-C968-439B-B0CD-82F311F107D8}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{BB5C7294-C7B9-402F-8E93-295301C8D207}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/public/sample/espi_university_excel_sample.xlsx
+++ b/public/sample/espi_university_excel_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc-dev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sagar\laravel\temp\espicrm\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D514B4-0ED9-4802-9383-2C30090D58BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C347721-E3B1-4A66-90D9-80F1713C4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{511FF53B-8D8F-4C10-AB9A-278269F4DF3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>University Name</t>
   </si>
@@ -147,7 +147,28 @@
     <t>3.5 GPA</t>
   </si>
   <si>
-    <t xml:space="preserve">90% / 4.5 </t>
+    <t>Campus Name</t>
+  </si>
+  <si>
+    <t>Campus Country</t>
+  </si>
+  <si>
+    <t>Campus Address</t>
+  </si>
+  <si>
+    <t>Campus Fees</t>
+  </si>
+  <si>
+    <t>India### Australia</t>
+  </si>
+  <si>
+    <t>abc### xyz</t>
+  </si>
+  <si>
+    <t>abc address### xyz address</t>
+  </si>
+  <si>
+    <t>15000 ### 25000</t>
   </si>
 </sst>
 </file>
@@ -200,11 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,15 +540,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A8D07-54C0-48ED-BD42-3B45D68FDAB3}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AF2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,8 +671,20 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -663,65 +721,77 @@
       <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0.8</v>
+      <c r="M2">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>70</v>
+      </c>
+      <c r="R2">
+        <v>4.5</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2">
+        <v>3.5</v>
+      </c>
+      <c r="U2">
+        <v>90</v>
+      </c>
+      <c r="V2">
+        <v>4.5</v>
+      </c>
+      <c r="W2">
+        <v>90</v>
+      </c>
+      <c r="X2">
+        <v>4.5</v>
+      </c>
+      <c r="Y2">
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="3">
+      <c r="AA2">
+        <v>90</v>
+      </c>
+      <c r="AB2">
         <v>0.8</v>
       </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>39</v>
+      <c r="AC2">
+        <v>3.5</v>
+      </c>
+      <c r="AD2">
+        <v>4.5</v>
+      </c>
+      <c r="AE2">
+        <v>80</v>
+      </c>
+      <c r="AF2">
+        <v>3.5</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample/espi_university_excel_sample.xlsx
+++ b/public/sample/espi_university_excel_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sagar\laravel\temp\espicrm\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C347721-E3B1-4A66-90D9-80F1713C4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC60C6D-7E4A-41D1-A3A9-E6DECB9299DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{511FF53B-8D8F-4C10-AB9A-278269F4DF3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>University Name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Campus</t>
   </si>
   <si>
     <t>Provision State</t>
@@ -540,41 +537,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A8D07-54C0-48ED-BD42-3B45D68FDAB3}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>40</v>
@@ -680,130 +679,124 @@
       <c r="AI1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>9999999999</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>2021</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="I2">
-        <v>2021</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="2">
-        <v>15000</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>3.5</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>4.5</v>
+      </c>
+      <c r="R2">
+        <v>80</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2">
+        <v>90</v>
+      </c>
+      <c r="U2">
+        <v>4.5</v>
+      </c>
+      <c r="V2">
+        <v>90</v>
+      </c>
+      <c r="W2">
+        <v>4.5</v>
+      </c>
+      <c r="X2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
         <v>38</v>
       </c>
-      <c r="M2">
+      <c r="Z2">
+        <v>90</v>
+      </c>
+      <c r="AA2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
+        <v>3.5</v>
+      </c>
+      <c r="AC2">
+        <v>4.5</v>
+      </c>
+      <c r="AD2">
         <v>80</v>
       </c>
-      <c r="N2">
+      <c r="AE2">
         <v>3.5</v>
       </c>
-      <c r="O2">
-        <v>90</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>70</v>
-      </c>
-      <c r="R2">
-        <v>4.5</v>
-      </c>
-      <c r="S2">
-        <v>80</v>
-      </c>
-      <c r="T2">
-        <v>3.5</v>
-      </c>
-      <c r="U2">
-        <v>90</v>
-      </c>
-      <c r="V2">
-        <v>4.5</v>
-      </c>
-      <c r="W2">
-        <v>90</v>
-      </c>
-      <c r="X2">
-        <v>4.5</v>
-      </c>
-      <c r="Y2">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2">
-        <v>90</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
-      <c r="AC2">
-        <v>3.5</v>
-      </c>
-      <c r="AD2">
-        <v>4.5</v>
-      </c>
-      <c r="AE2">
-        <v>80</v>
-      </c>
-      <c r="AF2">
-        <v>3.5</v>
+      <c r="AF2" t="s">
+        <v>44</v>
       </c>
       <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" t="s">
         <v>45</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>44</v>
       </c>
       <c r="AI2" t="s">
         <v>46</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{9920AFA7-CD28-4D08-A874-573A7C7EBCA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{9920AFA7-CD28-4D08-A874-573A7C7EBCA0}">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3765E2EA-9CD7-4299-B48F-983336E44B1A}"/>
-    <hyperlink ref="K2" r:id="rId2" display="www.abc.com" xr:uid="{478C94E7-C968-439B-B0CD-82F311F107D8}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{BB5C7294-C7B9-402F-8E93-295301C8D207}"/>
+    <hyperlink ref="J2" r:id="rId2" display="www.abc.com" xr:uid="{478C94E7-C968-439B-B0CD-82F311F107D8}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{BB5C7294-C7B9-402F-8E93-295301C8D207}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
